--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2361.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2361.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8301031526234793</v>
+        <v>1.010562896728516</v>
       </c>
       <c r="B1">
-        <v>1.522782909396016</v>
+        <v>2.123342990875244</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.112164497375488</v>
       </c>
       <c r="D1">
-        <v>2.187451967821058</v>
+        <v>1.324487924575806</v>
       </c>
       <c r="E1">
-        <v>1.255045027559877</v>
+        <v>1.290057063102722</v>
       </c>
     </row>
   </sheetData>
